--- a/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48964F86-E7FB-4761-A1CF-878C0D27AFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E09635-79D0-4754-A6C2-ACBE9ECF2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{604AFC55-BB17-4B76-87CC-0C4C1D982D9B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FE156B8D-67C7-4923-91D9-52492A14825F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,36 +68,90 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>98,9%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
@@ -107,25 +161,25 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -161,60 +215,6 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
@@ -242,6 +242,36 @@
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>98,86%</t>
   </si>
   <si>
@@ -272,16 +302,40 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -320,60 +374,6 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
@@ -419,6 +419,48 @@
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
@@ -449,28 +491,28 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>98,69%</t>
@@ -485,48 +527,6 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
@@ -554,6 +554,42 @@
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -596,28 +632,34 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>97,21%</t>
@@ -626,9 +668,6 @@
     <t>93,27%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
     <t>98,63%</t>
   </si>
   <si>
@@ -641,9 +680,6 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>6,73%</t>
   </si>
   <si>
@@ -654,42 +690,6 @@
   </si>
   <si>
     <t>3,3%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
   </si>
   <si>
     <t>98,55%</t>
@@ -1111,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF6DA70-381C-437D-8A1E-D0590ECC1655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229FF4E2-23B0-4EC3-81AB-60A8F4EE9339}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1229,10 +1229,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>111631</v>
+        <v>13204</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1244,31 +1244,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>221692</v>
+        <v>30763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1277,22 +1277,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1301,28 +1301,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,54 +1331,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1390,13 +1390,13 @@
         <v>68459</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -1405,13 +1405,13 @@
         <v>58113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>191</v>
@@ -1420,19 +1420,19 @@
         <v>126573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1492,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1507,13 +1507,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1522,87 +1522,87 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D10" s="7">
-        <v>89348</v>
+        <v>111631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I10" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="N10" s="7">
-        <v>185337</v>
+        <v>221692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1611,25 +1611,25 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>39</v>
@@ -1641,49 +1641,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,100 +1694,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>13204</v>
+        <v>77869</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7">
+        <v>69208</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17559</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7">
+        <v>237</v>
+      </c>
+      <c r="N13" s="7">
+        <v>147077</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30763</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>525</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,99 +1796,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D16" s="7">
-        <v>77869</v>
+        <v>89348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>124</v>
+      </c>
+      <c r="I16" s="7">
+        <v>95989</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7">
+        <v>254</v>
+      </c>
+      <c r="N16" s="7">
+        <v>185337</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7">
-        <v>69208</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>237</v>
-      </c>
-      <c r="N16" s="7">
-        <v>147077</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1897,49 +1897,49 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>695</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>57</v>
@@ -1951,49 +1951,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
         <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -2025,13 +2025,13 @@
         <v>350930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>1065</v>
@@ -2046,13 +2046,13 @@
         <v>61</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2064,7 +2064,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>63</v>
@@ -2076,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2094,7 +2094,7 @@
         <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>65</v>
@@ -2112,13 +2112,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2127,13 +2127,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2142,13 +2142,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C7278D-626A-4ABF-BD40-4B3AB573EB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E98C0-0BEC-4556-8FFD-2DF3EAEF63D3}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2287,55 +2287,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>112017</v>
+        <v>12890</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25931</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>337</v>
-      </c>
-      <c r="N4" s="7">
-        <v>226724</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2344,43 +2344,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>582</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>582</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,54 +2389,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227306</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2448,13 +2448,13 @@
         <v>62202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -2463,13 +2463,13 @@
         <v>61027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -2478,19 +2478,19 @@
         <v>123229</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2514,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2565,13 +2565,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -2580,117 +2580,117 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7">
-        <v>94936</v>
+        <v>114706</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
+        <v>169</v>
+      </c>
+      <c r="I10" s="7">
+        <v>112017</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>337</v>
+      </c>
+      <c r="N10" s="7">
+        <v>226724</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>118</v>
-      </c>
-      <c r="I10" s="7">
-        <v>91458</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>247</v>
-      </c>
-      <c r="N10" s="7">
-        <v>186392</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1519</v>
+        <v>582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>2885</v>
+        <v>582</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,49 +2699,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,97 +2752,97 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>13040</v>
+        <v>78896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I13" s="7">
-        <v>12890</v>
+        <v>73369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>25931</v>
+        <v>152264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1128</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1986</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>98</v>
@@ -2854,63 +2854,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>78896</v>
+        <v>94936</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>99</v>
@@ -2919,13 +2919,13 @@
         <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7">
-        <v>73369</v>
+        <v>91458</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2934,40 +2934,40 @@
         <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N16" s="7">
-        <v>152264</v>
+        <v>186392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>857</v>
+        <v>1365</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>106</v>
@@ -2976,28 +2976,28 @@
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1128</v>
+        <v>1519</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1986</v>
+        <v>2885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>110</v>
@@ -3009,49 +3009,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -3170,13 +3170,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3185,13 +3185,13 @@
         <v>353991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3200,13 +3200,13 @@
         <v>719992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13480A17-859F-47FA-A1CB-9D31DA5D636A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2872F6C5-6098-43BF-807F-B068515D48FC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,55 +3345,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>106566</v>
+        <v>15002</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>34</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30479</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>322</v>
-      </c>
-      <c r="N4" s="7">
-        <v>215157</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3402,43 +3402,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>617</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>617</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,54 +3447,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3506,13 +3506,13 @@
         <v>60320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3524,10 +3524,10 @@
         <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -3536,19 +3536,19 @@
         <v>115387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3575,10 +3575,10 @@
         <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3587,13 +3587,13 @@
         <v>771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3608,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3623,13 +3623,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -3638,63 +3638,63 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
+        <v>165</v>
+      </c>
+      <c r="I10" s="7">
+        <v>106566</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>322</v>
+      </c>
+      <c r="N10" s="7">
+        <v>215157</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>144</v>
-      </c>
-      <c r="I10" s="7">
-        <v>109007</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>289</v>
-      </c>
-      <c r="N10" s="7">
-        <v>215764</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3703,7 +3703,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3712,43 +3712,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>617</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3757,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,46 +3810,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>15477</v>
+        <v>76163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>30479</v>
+        <v>151751</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3858,22 +3858,22 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3882,28 +3882,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,123 +3912,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7">
-        <v>76163</v>
+        <v>106757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="N16" s="7">
-        <v>151751</v>
+        <v>215764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4037,28 +4037,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,49 +4067,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>525</v>
@@ -4147,7 +4147,7 @@
         <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>1034</v>
@@ -4156,19 +4156,19 @@
         <v>728538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>167</v>
@@ -4195,7 +4195,7 @@
         <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>169</v>
@@ -4207,10 +4207,10 @@
         <v>2088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>123</v>
@@ -4228,13 +4228,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4243,13 +4243,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4258,13 +4258,13 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EA7677-0A14-4AA9-92B8-5CFB92E649DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576AC27-C885-4036-9FEF-8937AF529886}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4403,100 +4403,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>165894</v>
+        <v>6505</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>116762</v>
+        <v>9519</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16023</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="7">
-        <v>370</v>
-      </c>
-      <c r="N4" s="7">
-        <v>282655</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1056</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1738</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2794</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,54 +4505,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4564,13 @@
         <v>71752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -4579,13 +4579,13 @@
         <v>61790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4594,19 +4594,19 @@
         <v>133542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4615,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4630,13 +4630,13 @@
         <v>732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4645,13 +4645,13 @@
         <v>732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -4681,13 +4681,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -4696,117 +4696,117 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7">
-        <v>107775</v>
+        <v>165894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>101285</v>
+        <v>116762</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="N10" s="7">
-        <v>209060</v>
+        <v>282655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2912</v>
+        <v>1738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2912</v>
+        <v>2794</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,49 +4815,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,46 +4868,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>6505</v>
+        <v>110983</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="I13" s="7">
-        <v>9519</v>
+        <v>104858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="N13" s="7">
-        <v>16023</v>
+        <v>215840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4916,52 +4916,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,150 +4970,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D16" s="7">
-        <v>110983</v>
+        <v>107775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>135</v>
+      </c>
+      <c r="I16" s="7">
+        <v>101285</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="7">
+        <v>273</v>
+      </c>
+      <c r="N16" s="7">
+        <v>209060</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>141</v>
-      </c>
-      <c r="I16" s="7">
-        <v>104858</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>268</v>
-      </c>
-      <c r="N16" s="7">
-        <v>215840</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2912</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>428</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2912</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1267</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>216</v>
@@ -5125,49 +5125,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5184,13 @@
         <v>462909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>545</v>
@@ -5217,7 +5217,7 @@
         <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>221</v>
@@ -5226,7 +5226,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -5235,13 +5235,13 @@
         <v>1894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5271,7 +5271,7 @@
         <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5286,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5301,13 +5301,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5316,13 +5316,13 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E09635-79D0-4754-A6C2-ACBE9ECF2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90598CA-77A9-415F-9CB3-44019E216CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FE156B8D-67C7-4923-91D9-52492A14825F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86F45B29-5556-4A1F-A483-70A4B90CA156}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="230">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>74,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,36 +116,21 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>98,17%</t>
   </si>
   <si>
@@ -131,18 +140,18 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>98,88%</t>
   </si>
   <si>
@@ -152,18 +161,18 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
@@ -173,22 +182,28 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>98,47%</t>
@@ -197,406 +212,433 @@
     <t>99,63%</t>
   </si>
   <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>99,92%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,21%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
+    <t>96,71%</t>
+  </si>
+  <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -605,121 +647,88 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>93,27%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>97,23%</t>
   </si>
   <si>
     <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
 </sst>
 </file>
@@ -730,7 +739,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -826,39 +835,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -910,7 +919,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1021,13 +1030,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1036,6 +1038,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1100,19 +1109,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229FF4E2-23B0-4EC3-81AB-60A8F4EE9339}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE34896-A11F-40B7-8A4D-299DD344299A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1229,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>13204</v>
+        <v>525</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1244,13 +1273,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>17559</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1259,19 +1288,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>30763</v>
+        <v>525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,10 +1309,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>525</v>
+        <v>13204</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1295,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>17559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1310,19 +1339,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>525</v>
+        <v>30763</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,13 +1366,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1352,13 +1381,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1367,13 +1396,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,49 +1413,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>68459</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>58113</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>126573</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,49 +1464,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>68459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>58113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>126573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1521,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1507,13 +1536,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1522,13 +1551,13 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,49 +1568,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>111631</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>110061</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>221692</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,49 +1619,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>111631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>110061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>221692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1676,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -1662,13 +1691,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -1677,13 +1706,13 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,49 +1723,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>77869</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H13" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>69208</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M13" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>147077</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,49 +1774,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>77869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>69208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>147077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1831,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -1817,13 +1846,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -1832,13 +1861,13 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,49 +1878,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>89348</v>
+        <v>695</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>95989</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M16" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>185337</v>
+        <v>695</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,49 +1929,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D17" s="7">
-        <v>695</v>
+        <v>89348</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>95989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N17" s="7">
-        <v>695</v>
+        <v>185337</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1986,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -1972,13 +2001,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -1987,13 +2016,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2033,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>543</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>360512</v>
+        <v>1219</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1219</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>522</v>
-      </c>
-      <c r="I19" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N19" s="7">
-        <v>711442</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2084,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>543</v>
       </c>
       <c r="D20" s="7">
-        <v>1219</v>
+        <v>360512</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7">
+        <v>522</v>
+      </c>
+      <c r="I20" s="7">
+        <v>350930</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1065</v>
+      </c>
+      <c r="N20" s="7">
+        <v>711442</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1219</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2141,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2127,13 +2156,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2142,13 +2171,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2169,8 +2203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E98C0-0BEC-4556-8FFD-2DF3EAEF63D3}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA510988-E4BC-4101-B963-2D07ABC919A9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2186,7 +2220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2287,49 +2321,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
-        <v>13040</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12890</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>25931</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,49 +2372,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12890</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>29</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25931</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2429,13 @@
         <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -2410,13 +2444,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2425,13 +2459,13 @@
         <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2476,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>62202</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>61027</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>123229</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,49 +2527,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>62202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>61027</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>123229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2584,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2565,13 +2599,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -2580,13 +2614,13 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,49 +2631,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>114706</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>112017</v>
+        <v>582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>226724</v>
+        <v>582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,49 +2682,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>114706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="I11" s="7">
-        <v>582</v>
+        <v>112017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="N11" s="7">
-        <v>582</v>
+        <v>226724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2739,13 @@
         <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2720,13 +2754,13 @@
         <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -2735,13 +2769,13 @@
         <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,49 +2786,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>78896</v>
+        <v>857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>73369</v>
+        <v>1128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>152264</v>
+        <v>1986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,49 +2837,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>857</v>
+        <v>78896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="I14" s="7">
-        <v>1128</v>
+        <v>73369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="N14" s="7">
-        <v>1986</v>
+        <v>152264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2894,13 @@
         <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -2875,13 +2909,13 @@
         <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -2890,13 +2924,13 @@
         <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,49 +2941,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>94936</v>
+        <v>1365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>91458</v>
+        <v>1519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>186392</v>
+        <v>2885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,49 +2992,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>1365</v>
+        <v>94936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>1519</v>
+        <v>91458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="N17" s="7">
-        <v>2885</v>
+        <v>186392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3049,13 @@
         <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3030,13 +3064,13 @@
         <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3045,13 +3079,13 @@
         <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,49 +3096,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>521</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>363779</v>
+        <v>2223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
-        <v>499</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>350761</v>
+        <v>3230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>1020</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>714540</v>
+        <v>5452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,49 +3147,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>521</v>
       </c>
       <c r="D20" s="7">
-        <v>2223</v>
+        <v>363779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="I20" s="7">
-        <v>3230</v>
+        <v>350761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>1020</v>
       </c>
       <c r="N20" s="7">
-        <v>5452</v>
+        <v>714540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3204,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3185,13 +3219,13 @@
         <v>353991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3200,13 +3234,18 @@
         <v>719992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3227,8 +3266,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2872F6C5-6098-43BF-807F-B068515D48FC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471DD881-64E8-406C-886D-D4C98C8A9136}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3244,7 +3283,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3345,49 +3384,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15477</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15002</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>30479</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,49 +3435,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>15477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>15002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>30479</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3492,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3468,13 +3507,13 @@
         <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -3483,13 +3522,13 @@
         <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3539,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>60320</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>55067</v>
+        <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>115387</v>
+        <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3590,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>60320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>771</v>
+        <v>55067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="N8" s="7">
-        <v>771</v>
+        <v>115387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3647,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3623,13 +3662,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -3638,13 +3677,13 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3694,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>108592</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>106566</v>
+        <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>215157</v>
+        <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3745,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>108592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>617</v>
+        <v>106566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="N11" s="7">
-        <v>617</v>
+        <v>215157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3802,13 @@
         <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -3778,13 +3817,13 @@
         <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>323</v>
@@ -3793,13 +3832,13 @@
         <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,49 +3849,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>76163</v>
+        <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>75588</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>151751</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,49 +3900,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>700</v>
+        <v>76163</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>75588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="N14" s="7">
-        <v>700</v>
+        <v>151751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3957,13 @@
         <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -3933,13 +3972,13 @@
         <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -3948,13 +3987,13 @@
         <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,49 +4004,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>106757</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>109007</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>215764</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,49 +4055,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>106757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>109007</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>215764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4112,13 @@
         <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -4088,13 +4127,13 @@
         <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>289</v>
@@ -4103,13 +4142,13 @@
         <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,49 +4159,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>367308</v>
+        <v>700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>361230</v>
+        <v>1388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
-        <v>1034</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>728538</v>
+        <v>2088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,49 +4210,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>509</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>367308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>525</v>
       </c>
       <c r="I20" s="7">
-        <v>1388</v>
+        <v>361230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>1034</v>
       </c>
       <c r="N20" s="7">
-        <v>2088</v>
+        <v>728538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4267,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4243,13 +4282,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4258,13 +4297,18 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4285,8 +4329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576AC27-C885-4036-9FEF-8937AF529886}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBEBE3D-8E3A-4F27-B7D3-99EFA515EC85}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4302,7 +4346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4403,49 +4447,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6505</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9519</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,49 +4498,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4555,13 @@
         <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4526,13 +4570,13 @@
         <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -4541,13 +4585,13 @@
         <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,49 +4602,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>71752</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>61790</v>
+        <v>732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>133542</v>
+        <v>732</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,49 +4653,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>71752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="I8" s="7">
-        <v>732</v>
+        <v>61790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>732</v>
+        <v>133542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4710,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -4681,13 +4725,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -4696,13 +4740,13 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,49 +4757,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>165894</v>
+        <v>1056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>116762</v>
+        <v>1738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>282655</v>
+        <v>2794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,49 +4808,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>1056</v>
+        <v>165894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>1738</v>
+        <v>116762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="N11" s="7">
-        <v>2794</v>
+        <v>282655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4865,13 @@
         <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -4836,13 +4880,13 @@
         <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>374</v>
@@ -4851,13 +4895,13 @@
         <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,49 +4912,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>110983</v>
+        <v>838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>104858</v>
+        <v>428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>215840</v>
+        <v>1267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,49 +4963,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>838</v>
+        <v>110983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I14" s="7">
-        <v>428</v>
+        <v>104858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>1267</v>
+        <v>215840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5020,13 @@
         <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4991,13 +5035,13 @@
         <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5006,13 +5050,13 @@
         <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,49 +5067,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="7">
-        <v>107775</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H16" s="7">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>101285</v>
+        <v>2912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>209060</v>
+        <v>2912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,49 +5118,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>107775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="I17" s="7">
-        <v>2912</v>
+        <v>101285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="N17" s="7">
-        <v>2912</v>
+        <v>209060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5175,13 @@
         <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -5146,13 +5190,13 @@
         <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -5161,13 +5205,13 @@
         <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,49 +5222,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>568</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>462909</v>
+        <v>1894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>394213</v>
+        <v>5811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
-        <v>1113</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>857121</v>
+        <v>7705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,49 +5273,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="D20" s="7">
-        <v>1894</v>
+        <v>462909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>545</v>
       </c>
       <c r="I20" s="7">
-        <v>5811</v>
+        <v>394213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>1113</v>
       </c>
       <c r="N20" s="7">
-        <v>7705</v>
+        <v>857121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5330,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5301,13 +5345,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5316,13 +5360,18 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90598CA-77A9-415F-9CB3-44019E216CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4862BF3-7499-409A-BD11-A3C72E999EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86F45B29-5556-4A1F-A483-70A4B90CA156}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA2132D-FEDE-4E9D-89E1-B58424DDCE82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="228">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,65%</t>
+    <t>20,82%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,63%</t>
+    <t>8,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>96,18%</t>
   </si>
   <si>
-    <t>74,35%</t>
+    <t>79,18%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,10 +116,10 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -140,7 +140,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -161,7 +161,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -188,7 +188,7 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -197,13 +197,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>98,47%</t>
@@ -212,523 +212,517 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE34896-A11F-40B7-8A4D-299DD344299A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8FFF39-55CA-4BF3-BFE7-E7100803E447}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2045,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2069,13 +2063,13 @@
         <v>1219</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2087,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -2120,10 +2114,10 @@
         <v>711442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -2203,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA510988-E4BC-4101-B963-2D07ABC919A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D428B4-D5C8-4300-A3DD-CBAF611E7DE7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2822,13 +2816,13 @@
         <v>1986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,10 +2837,10 @@
         <v>78896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2858,10 +2852,10 @@
         <v>73369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2873,13 +2867,13 @@
         <v>152264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2941,13 @@
         <v>1365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2962,13 +2956,13 @@
         <v>1519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2977,13 +2971,13 @@
         <v>2885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,10 +2992,10 @@
         <v>94936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3013,10 +3007,10 @@
         <v>91458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3028,13 +3022,13 @@
         <v>186392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3096,13 @@
         <v>2223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3117,13 +3111,13 @@
         <v>3230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3132,13 +3126,13 @@
         <v>5452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3153,7 @@
         <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -3186,10 +3180,10 @@
         <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471DD881-64E8-406C-886D-D4C98C8A9136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E1400-34CE-4A6C-9FAD-E1073F70F349}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,7 +3277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3396,7 +3390,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3411,7 +3405,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3426,7 +3420,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3438,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3459,7 +3453,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3474,7 +3468,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3551,7 +3545,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3560,13 +3554,13 @@
         <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3575,13 +3569,13 @@
         <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3611,10 +3605,10 @@
         <v>55067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3626,10 +3620,10 @@
         <v>115387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3706,7 +3700,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3715,13 +3709,13 @@
         <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3730,13 +3724,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3748,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3766,10 +3760,10 @@
         <v>106566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3781,10 +3775,10 @@
         <v>215157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3855,13 +3849,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3876,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3885,13 +3879,13 @@
         <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3903,7 @@
         <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3924,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3936,10 +3930,10 @@
         <v>151751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -4016,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4031,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4046,7 +4040,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4058,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -4079,7 +4073,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -4094,7 +4088,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>23</v>
@@ -4165,13 +4159,13 @@
         <v>700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4180,13 +4174,13 @@
         <v>1388</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4195,13 +4189,13 @@
         <v>2088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,10 +4210,10 @@
         <v>367308</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -4246,13 +4240,13 @@
         <v>728538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBEBE3D-8E3A-4F27-B7D3-99EFA515EC85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE0D84-1B5D-4A55-86B9-BE9FE93772CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +4775,10 @@
         <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4793,13 +4787,13 @@
         <v>2794</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,10 +4808,10 @@
         <v>165894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4829,13 +4823,13 @@
         <v>116762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>370</v>
@@ -4844,13 +4838,13 @@
         <v>282655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4912,13 @@
         <v>838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4933,13 +4927,13 @@
         <v>428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4948,13 +4942,13 @@
         <v>1267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,10 +4963,10 @@
         <v>110983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -4984,10 +4978,10 @@
         <v>104858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4999,10 +4993,10 @@
         <v>215840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -5079,7 +5073,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5088,13 +5082,13 @@
         <v>2912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5103,13 +5097,13 @@
         <v>2912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5121,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5139,13 +5133,13 @@
         <v>101285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>273</v>
@@ -5154,10 +5148,10 @@
         <v>209060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>172</v>
@@ -5228,13 +5222,13 @@
         <v>1894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5243,13 +5237,13 @@
         <v>5811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -5258,13 +5252,13 @@
         <v>7705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,10 +5273,10 @@
         <v>462909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -5294,13 +5288,13 @@
         <v>394213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1113</v>
@@ -5309,13 +5303,13 @@
         <v>857121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4862BF3-7499-409A-BD11-A3C72E999EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A155E532-13E4-47C6-B9DF-4C08E35728D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA2132D-FEDE-4E9D-89E1-B58424DDCE82}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05C6E5D0-F53D-40EB-B599-83F4C3EC9168}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="215">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,661 +68,622 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>8,27%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,73%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>98,9%</t>
+  </si>
+  <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
+    <t>98,35%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
+    <t>99,38%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8FFF39-55CA-4BF3-BFE7-E7100803E447}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2214FA5-2FC4-411D-AB30-419E616BB029}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,16 +1228,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1291,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1264,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>13204</v>
+        <v>75673</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1318,25 +1279,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81663</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7">
-        <v>17559</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>30763</v>
+        <v>157336</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1345,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,49 +1315,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>27</v>
@@ -1428,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>28</v>
@@ -1443,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>29</v>
@@ -1458,49 +1419,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I8" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N8" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,49 +1470,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>34</v>
@@ -1583,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -1598,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>36</v>
@@ -1613,49 +1574,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N11" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,49 +1625,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,43 +1684,43 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,49 +1729,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D14" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="I14" s="7">
-        <v>69208</v>
+        <v>89348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>147077</v>
+        <v>185337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,102 +1780,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>695</v>
+        <v>1219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,49 +1884,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="D17" s="7">
-        <v>89348</v>
+        <v>350930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>124</v>
+        <v>543</v>
       </c>
       <c r="I17" s="7">
-        <v>95989</v>
+        <v>360512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>254</v>
+        <v>1065</v>
       </c>
       <c r="N17" s="7">
-        <v>185337</v>
+        <v>711442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,217 +1935,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1219</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>543</v>
-      </c>
-      <c r="D20" s="7">
-        <v>360512</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>522</v>
-      </c>
-      <c r="I20" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N20" s="7">
-        <v>711442</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2197,8 +2002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D428B4-D5C8-4300-A3DD-CBAF611E7DE7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22640D5-8D8E-4A90-BFE1-0F5E3AB0A3CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2214,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2321,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2336,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2351,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,49 +2171,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>13040</v>
+        <v>73918</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="N5" s="7">
-        <v>25931</v>
+        <v>149159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2222,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>73918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>149159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,19 +2275,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2491,28 +2296,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,49 +2326,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>62202</v>
+        <v>112017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>168</v>
+      </c>
+      <c r="I8" s="7">
+        <v>114706</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>337</v>
+      </c>
+      <c r="N8" s="7">
+        <v>226724</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>84</v>
-      </c>
-      <c r="I8" s="7">
-        <v>61027</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>172</v>
-      </c>
-      <c r="N8" s="7">
-        <v>123229</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,49 +2377,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>62202</v>
+        <v>112599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="I9" s="7">
-        <v>61027</v>
+        <v>114706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>123229</v>
+        <v>227306</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,16 +2430,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>78</v>
@@ -2643,28 +2448,28 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>582</v>
+        <v>857</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>582</v>
+        <v>1986</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>82</v>
@@ -2676,49 +2481,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>114706</v>
+        <v>73369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>112017</v>
+        <v>78896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="N11" s="7">
-        <v>226724</v>
+        <v>152264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,49 +2532,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>114706</v>
+        <v>74497</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>112599</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>227306</v>
+        <v>154250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,46 +2585,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>857</v>
+        <v>1519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1128</v>
+        <v>1365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1986</v>
+        <v>2885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>94</v>
@@ -2831,10 +2636,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>78896</v>
+        <v>91458</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>95</v>
@@ -2843,13 +2648,13 @@
         <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I14" s="7">
-        <v>73369</v>
+        <v>94936</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>97</v>
@@ -2858,13 +2663,13 @@
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N14" s="7">
-        <v>152264</v>
+        <v>186392</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>99</v>
@@ -2873,7 +2678,7 @@
         <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,102 +2687,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>74497</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1365</v>
+        <v>3230</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1519</v>
+        <v>2223</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>2885</v>
+        <v>5452</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,25 +2791,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>129</v>
+        <v>499</v>
       </c>
       <c r="D17" s="7">
-        <v>94936</v>
+        <v>350761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" s="7">
-        <v>118</v>
+        <v>521</v>
       </c>
       <c r="I17" s="7">
-        <v>91458</v>
+        <v>363779</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>111</v>
@@ -3013,13 +2818,13 @@
         <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>247</v>
+        <v>1020</v>
       </c>
       <c r="N17" s="7">
-        <v>186392</v>
+        <v>714541</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -3028,7 +2833,7 @@
         <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,217 +2842,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>353991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>366002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2223</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3230</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5452</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>521</v>
-      </c>
-      <c r="D20" s="7">
-        <v>363779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="7">
-        <v>499</v>
-      </c>
-      <c r="I20" s="7">
-        <v>350761</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1020</v>
-      </c>
-      <c r="N20" s="7">
-        <v>714540</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>524</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366002</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>504</v>
-      </c>
-      <c r="I21" s="7">
-        <v>353991</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1028</v>
-      </c>
-      <c r="N21" s="7">
-        <v>719992</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3260,8 +2909,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E1400-34CE-4A6C-9FAD-E1073F70F349}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BC4BE3-D29F-4A64-B0BE-9B92C4FC62B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3277,7 +2926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3378,19 +3027,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3399,28 +3048,28 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +3078,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>15477</v>
+        <v>70070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7">
-        <v>15002</v>
+        <v>75797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="N5" s="7">
-        <v>30479</v>
+        <v>145866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,49 +3129,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>75797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>146637</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,49 +3182,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>617</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>771</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>771</v>
+        <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,49 +3233,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>60320</v>
+        <v>106566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I8" s="7">
-        <v>55067</v>
+        <v>108592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="N8" s="7">
-        <v>115387</v>
+        <v>215157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,49 +3284,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7">
-        <v>60320</v>
+        <v>107183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="N9" s="7">
-        <v>116158</v>
+        <v>215774</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,43 +3343,43 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,49 +3388,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>106566</v>
+        <v>76163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="N11" s="7">
-        <v>215157</v>
+        <v>151751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,49 +3439,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>107183</v>
+        <v>76863</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>215774</v>
+        <v>152451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,19 +3492,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3864,28 +3513,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,46 +3543,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>76163</v>
+        <v>109007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="N14" s="7">
-        <v>151751</v>
+        <v>215764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3945,102 +3594,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>76863</v>
+        <v>109007</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N15" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1388</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,49 +3698,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>145</v>
+        <v>525</v>
       </c>
       <c r="D17" s="7">
-        <v>106757</v>
+        <v>361230</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="I17" s="7">
-        <v>109007</v>
+        <v>367308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>289</v>
+        <v>1034</v>
       </c>
       <c r="N17" s="7">
-        <v>215764</v>
+        <v>728538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,217 +3749,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="D18" s="7">
-        <v>106757</v>
+        <v>362618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="I18" s="7">
-        <v>109007</v>
+        <v>368008</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>289</v>
+        <v>1037</v>
       </c>
       <c r="N18" s="7">
-        <v>215764</v>
+        <v>730626</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>700</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1388</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2088</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>509</v>
-      </c>
-      <c r="D20" s="7">
-        <v>367308</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>525</v>
-      </c>
-      <c r="I20" s="7">
-        <v>361230</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1034</v>
-      </c>
-      <c r="N20" s="7">
-        <v>728538</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>510</v>
-      </c>
-      <c r="D21" s="7">
-        <v>368008</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>527</v>
-      </c>
-      <c r="I21" s="7">
-        <v>362618</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1037</v>
-      </c>
-      <c r="N21" s="7">
-        <v>730626</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4323,8 +3816,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE0D84-1B5D-4A55-86B9-BE9FE93772CF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D128F0-3004-4CAC-998C-4BDFE04AAD57}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4340,7 +3833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4441,19 +3934,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4462,28 +3955,28 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,49 +3985,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>6505</v>
+        <v>69021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="N5" s="7">
-        <v>16023</v>
+        <v>154270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +4036,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>6505</v>
+        <v>69766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>16023</v>
+        <v>155015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,49 +4089,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>732</v>
+        <v>1332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>732</v>
+        <v>3062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,49 +4140,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>71752</v>
+        <v>112003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="I8" s="7">
-        <v>61790</v>
+        <v>166044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
+        <v>370</v>
+      </c>
+      <c r="N8" s="7">
+        <v>278047</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="N8" s="7">
-        <v>133542</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,49 +4191,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D9" s="7">
-        <v>71752</v>
+        <v>113733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>62522</v>
+        <v>167376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>134274</v>
+        <v>281109</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,46 +4247,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1056</v>
+        <v>422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1738</v>
+        <v>1045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2794</v>
+        <v>1467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,49 +4295,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>165894</v>
+        <v>106533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I11" s="7">
-        <v>116762</v>
+        <v>119202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>282655</v>
+        <v>225735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,49 +4346,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>166950</v>
+        <v>106955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>118500</v>
+        <v>120247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>285449</v>
+        <v>227202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>838</v>
+        <v>2861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1267</v>
+        <v>2862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,49 +4450,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>110983</v>
+        <v>98318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>104858</v>
+        <v>111571</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N14" s="7">
-        <v>215840</v>
+        <v>209889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,102 +4501,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>111821</v>
+        <v>101179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>105286</v>
+        <v>111571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N15" s="7">
-        <v>217107</v>
+        <v>212751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2912</v>
+        <v>2377</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>2912</v>
+        <v>8135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,49 +4605,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>138</v>
+        <v>545</v>
       </c>
       <c r="D17" s="7">
-        <v>107775</v>
+        <v>385875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
+        <v>568</v>
+      </c>
+      <c r="I17" s="7">
+        <v>482067</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1113</v>
+      </c>
+      <c r="N17" s="7">
+        <v>867941</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="7">
-        <v>101285</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="7">
-        <v>273</v>
-      </c>
-      <c r="N17" s="7">
-        <v>209060</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,217 +4656,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="D18" s="7">
-        <v>107775</v>
+        <v>391633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>211972</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1894</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5811</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7705</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>568</v>
-      </c>
-      <c r="D20" s="7">
-        <v>462909</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>545</v>
-      </c>
-      <c r="I20" s="7">
-        <v>394213</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1113</v>
-      </c>
-      <c r="N20" s="7">
-        <v>857121</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>554</v>
-      </c>
-      <c r="I21" s="7">
-        <v>400024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>864826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
